--- a/A6 codebase/A6 Self-scoring Rubric.xlsx
+++ b/A6 codebase/A6 Self-scoring Rubric.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Office com backup\UCO lectures\C++\CMSC2613-Intermediate\Assignments\F2025 Assignments\A6 minHeap\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abrah\OneDrive\Documents\GitHub\Fundamental-Data-Structures\A6 codebase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E80FD6FD-E7C1-4410-91A0-B757694F3253}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DB3FF54-7889-42E6-8327-DE2C50C78755}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{821355E3-60BE-4892-B1A3-B4E71FC82347}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{821355E3-60BE-4892-B1A3-B4E71FC82347}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -98,7 +98,7 @@
     <t>A6 Implementing a minHeap with Exception Handling</t>
   </si>
   <si>
-    <t>Name:</t>
+    <t>Name: Abraham Khan</t>
   </si>
 </sst>
 </file>
@@ -206,10 +206,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -548,18 +548,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F303C946-F569-4262-B586-1E59010AB7EC}">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="42.42578125" customWidth="1"/>
-    <col min="2" max="2" width="57.28515625" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="42.44140625" customWidth="1"/>
+    <col min="2" max="2" width="57.33203125" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A1" s="5" t="s">
         <v>19</v>
       </c>
@@ -567,15 +567,15 @@
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-    </row>
-    <row r="3" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+    </row>
+    <row r="3" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -589,7 +589,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -599,9 +599,11 @@
       <c r="C4" s="1">
         <v>20</v>
       </c>
-      <c r="D4" s="3"/>
-    </row>
-    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="D4" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="4"/>
       <c r="B5" s="2" t="s">
         <v>5</v>
@@ -609,9 +611,11 @@
       <c r="C5" s="1">
         <v>10</v>
       </c>
-      <c r="D5" s="3"/>
-    </row>
-    <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D5" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
       <c r="B6" s="2" t="s">
         <v>6</v>
@@ -619,9 +623,11 @@
       <c r="C6" s="1">
         <v>5</v>
       </c>
-      <c r="D6" s="3"/>
-    </row>
-    <row r="7" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D6" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -631,9 +637,11 @@
       <c r="C7" s="1">
         <v>15</v>
       </c>
-      <c r="D7" s="3"/>
-    </row>
-    <row r="8" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D7" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4"/>
       <c r="B8" s="2" t="s">
         <v>9</v>
@@ -641,9 +649,11 @@
       <c r="C8" s="1">
         <v>10</v>
       </c>
-      <c r="D8" s="3"/>
-    </row>
-    <row r="9" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D8" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4"/>
       <c r="B9" s="2" t="s">
         <v>10</v>
@@ -651,9 +661,11 @@
       <c r="C9" s="1">
         <v>10</v>
       </c>
-      <c r="D9" s="3"/>
-    </row>
-    <row r="10" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D9" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
@@ -663,9 +675,11 @@
       <c r="C10" s="1">
         <v>8</v>
       </c>
-      <c r="D10" s="3"/>
-    </row>
-    <row r="11" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
       <c r="B11" s="2" t="s">
         <v>13</v>
@@ -673,9 +687,11 @@
       <c r="C11" s="1">
         <v>6</v>
       </c>
-      <c r="D11" s="3"/>
-    </row>
-    <row r="12" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D11" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4"/>
       <c r="B12" s="2" t="s">
         <v>14</v>
@@ -683,9 +699,11 @@
       <c r="C12" s="1">
         <v>6</v>
       </c>
-      <c r="D12" s="3"/>
-    </row>
-    <row r="13" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="D12" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>15</v>
       </c>
@@ -695,9 +713,11 @@
       <c r="C13" s="1">
         <v>10</v>
       </c>
-      <c r="D13" s="3"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D13" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="1" t="s">
         <v>17</v>
@@ -708,7 +728,7 @@
       </c>
       <c r="D14" s="1">
         <f>SUM(D4:D13)</f>
-        <v>0</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
